--- a/biology/Zoologie/Hadrosaurus/Hadrosaurus.xlsx
+++ b/biology/Zoologie/Hadrosaurus/Hadrosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadrosaurus (Grec : ἁδρός, hadros + σαυρος, sauros = lézard robuste) est un genre douteux de la famille des hadrosauridés, ou « dinosaures à bec de canard ». En 1858, un squelette d'un spécimen du genre est découvert en Amérique du Nord et devient le premier squelette de dinosaure jamais reconstitué.
-Une espèce est citée par Paleobiology Database : Hadrosaurus foulkii [1]. Hadrosaurus breviceps est considéré comme nomen dubium[1]. 
+Une espèce est citée par Paleobiology Database : Hadrosaurus foulkii . Hadrosaurus breviceps est considéré comme nomen dubium. 
 « Hadrosaurus breviceps was named by Marsh (1889). Its type specimen is YPM 1779 and is a 3D body fossil. Its type locality is Bearpaw Mountains (PROXY), which is in a Campanian/Campanian terrestrial horizon in the Judith River Formation of Montana. 
 It was recombined as Trachodon breviceps by  Marsh (1896), Hay (1902), von Zittel (1911), Huene (1927) and  Hay (1930); it was recombined as Kritosaurus breviceps by  Lull and Wright (1942), Vialli (1960), Kuhn (1964) and  Wolberg (1980); it was considered a nomen dubium  by  Weishampel and Horner (1990), Hunt and Lucas (1992), Horner et al. (2004), Lund and Gates (2006) and  Prieto-Márquez et al. (2006) »
-— Hadrosauridae : Histoire taxonomique[1].
+— Hadrosauridae : Histoire taxonomique.
 </t>
         </is>
       </c>
